--- a/data.xlsx
+++ b/data.xlsx
@@ -28,175 +28,175 @@
     <t xml:space="preserve">CHT.P</t>
   </si>
   <si>
-    <t xml:space="preserve">B399563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B399564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B399565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B401503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B401504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B439154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B439155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B442349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B442350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B442351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B484140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B487890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B487891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B487892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B487893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B487894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B524561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B524562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B524563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B524564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B524565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B529770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B536997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B536998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B536999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B537000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B537001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B537002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B548861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B550901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B550902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B550904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B561515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B563789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B573830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B573831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B573832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B573833</t>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B57</t>
   </si>
 </sst>
 </file>
@@ -211,6 +211,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,11 +233,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,11 +316,14 @@
   </sheetPr>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.55"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
